--- a/datadance/t_jobdata.xlsx
+++ b/datadance/t_jobdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\flask_project\datadance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7AB461-C43E-48AF-9C85-BE5D7DF7F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1169A-8B3E-4539-960B-77CBF447172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB4F9C7E-B1F5-435F-BAF4-845BF195F081}"/>
+    <workbookView xWindow="12" yWindow="1692" windowWidth="21288" windowHeight="10236" xr2:uid="{FB4F9C7E-B1F5-435F-BAF4-845BF195F081}"/>
   </bookViews>
   <sheets>
     <sheet name="t_jobdata" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>猎头顾问/助理</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>https://www.liepin.com/a/38340853.shtml?d_sfrom=search_prime&amp;d_ckId=02d70117b36ec159a1aee72a27cd9c25&amp;d_curPage=0&amp;d_pageSize=40&amp;d_headId=02d70117b36ec159a1aee72a27cd9c25&amp;d_posi=5&amp;skId=enplx0pr5wyfammlrowcnaf1xnbjp039&amp;fkId=enplx0pr5wyfammlrowcnaf1xnbjp039&amp;ckId=15xzvtfjjag8qro1hlqoo73feiotyh98&amp;sfrom=search_job_pc&amp;curPage=0&amp;pageSize=40&amp;index=5</t>
+  </si>
+  <si>
+    <t>猎头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA87DA4-5361-4E75-B8EF-9520F89FD3F9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -480,6 +488,7 @@
     <col min="4" max="4" width="59.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="125.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,8 +511,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
-        <v>5</v>
+      <c r="H1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -525,8 +534,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>6</v>
+      <c r="H2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -548,8 +557,8 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>7</v>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -571,8 +580,8 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="H4">
-        <v>8</v>
+      <c r="H4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/datadance/t_jobdata.xlsx
+++ b/datadance/t_jobdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\flask_project\datadance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1169A-8B3E-4539-960B-77CBF447172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AAF1A8-9C7D-43D8-A7DA-EF7ACFE7A181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="1692" windowWidth="21288" windowHeight="10236" xr2:uid="{FB4F9C7E-B1F5-435F-BAF4-845BF195F081}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB4F9C7E-B1F5-435F-BAF4-845BF195F081}"/>
   </bookViews>
   <sheets>
     <sheet name="t_jobdata" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>猎头顾问/助理</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA87DA4-5361-4E75-B8EF-9520F89FD3F9}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -492,7 +504,7 @@
     <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +526,11 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,8 +552,11 @@
       <c r="H2" t="s">
         <v>24</v>
       </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -560,8 +578,11 @@
       <c r="H3" t="s">
         <v>24</v>
       </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -582,6 +603,9 @@
       </c>
       <c r="H4" t="s">
         <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
